--- a/biology/Botanique/Forêt_domaniale_de_Boulogne_(Loir-et-Cher)/Forêt_domaniale_de_Boulogne_(Loir-et-Cher).xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Boulogne_(Loir-et-Cher)/Forêt_domaniale_de_Boulogne_(Loir-et-Cher).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Boulogne est un massif forestier qui s'étend au sud des villes de Blois et de Chambord, dans le Loir-et-Cher, en France métropolitaine. Avec une superficie de 4 075 ha, il s'agit de la plus grande forêt du pays blésois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,23 +526,102 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toponymie
-Largement confondue avec la forêt de Boulogne-sur-Mer, le nom "Boulogne" dériverait du latin sylva longa, qui signifie littéralement "bois long"[1].
-Géologie et relief
-Climat
-Flore
-Arbres
-Les essences les plus communes de la forêt de Boulogne sont[2] :
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Largement confondue avec la forêt de Boulogne-sur-Mer, le nom "Boulogne" dériverait du latin sylva longa, qui signifie littéralement "bois long".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Arbres</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les essences les plus communes de la forêt de Boulogne sont :
 le charme,
 le châtaigner,
 le chêne pédonculé,
 le chêne rouvre,
 le hêtre,
 le pin sylvestre,
-le saule marsault.
-Champignons
-Tout comme la forêt de Russy, la forêt de Boulogne constitue un espace privilégié pour la cueillette de champignons en automne.
-De nombreuses espèces comestibles y ont été recensées, telles que[3] :
+le saule marsault.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme la forêt de Russy, la forêt de Boulogne constitue un espace privilégié pour la cueillette de champignons en automne.
+De nombreuses espèces comestibles y ont été recensées, telles que :
 des cèpes,
 des coulemelles,
 des girolles,
@@ -548,10 +639,47 @@
 			Russule verdoyante
 			Têtes-de-moines
 			Trompettes des morts
-Faune
-Faune recensée
-Période de chasse
-Comme les autres forêts de la région, la chasse reste toujours pratiquée au sein de la forêt de Boulogne, en particulier en automne et en hiver. Par exemple, la saison 2022 a débuté le 25 septembre pour finir le 31 mars 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Période de chasse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres forêts de la région, la chasse reste toujours pratiquée au sein de la forêt de Boulogne, en particulier en automne et en hiver. Par exemple, la saison 2022 a débuté le 25 septembre pour finir le 31 mars 2023.
 Puisque l’accès à la forêt peut s’avérer dangereux lors de jours de chasse, celle-ci n’est pratiquée ni tous les jours, ni sur toute la forêt en même temps. En effet, la forêt est séparée en 3 lots :
 Lot no 1 (en bleu ci-contre : entre Thoury et Neuvy), où la chasse n’est autorisée que le lundi ;
 Lot no 2 (en marron : au sud de Chambord), où la chasse est autorisée le lundi et le vendredi uniquement ;
@@ -561,66 +689,70 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, la forêt de Boulogne appartenait à un large ensemble forestier, comme le reste de la région. Cependant, il s'agit d'un espace qui a été domestiqué relativement tôt, dans le sens où les historiens ont retrouvé de nombreuses traces d'occupation ou d'aménagement au sein de l'actuelle forêt.
-En 1163, le prieuré de Boulogne est fondé[1], mais ce n'est qu'en 1202 que le comte Louis de Blois leur accorde la pleine propriété de leur domaine, entre les actuelles Huisseau-sur-Cosson et Bracieux. En 1233, le comte de Blois acquiert le château de Montfrault.
+En 1163, le prieuré de Boulogne est fondé, mais ce n'est qu'en 1202 que le comte Louis de Blois leur accorde la pleine propriété de leur domaine, entre les actuelles Huisseau-sur-Cosson et Bracieux. En 1233, le comte de Blois acquiert le château de Montfrault.
 En 1397, la maison de Blois cède le comté et donc ses droits de propriété sur la forêt au duc d'Orléans. Elle fut définitivement intégrée au domaine royal avec l'avènement d'Henri II, en 1547, puis elle sera offerte en apanage au même titre que le comté de Blois.
 Depuis 1524, le mur d’enceinte du domaine de Chambord, construit selon la volonté du roi François 1er, constitue une frontière biologique entre la forêt de Boulogne et le parc de Chambord, dont la propriété fut cédée au comte de Chambord.
-En 1770, les moines de l'ordre de Grandmont quittent le prieuré de Boulogne pour rejoindre Blois, menant à la vente du domaine à des propriétaires privés en tant que "domaine national"[1] ; il s'agit d’ailleurs de l'unique perte de terrain en forêts du pays blésois après la révolution française[1], aujourd’hui devenu un gîte de chambre d'hôtes. En 1790, la forêt devient propriété de l'État en tant que forêt domaniale. Depuis, sa lisière n'a que peu évolué[1].       
+En 1770, les moines de l'ordre de Grandmont quittent le prieuré de Boulogne pour rejoindre Blois, menant à la vente du domaine à des propriétaires privés en tant que "domaine national" ; il s'agit d’ailleurs de l'unique perte de terrain en forêts du pays blésois après la révolution française, aujourd’hui devenu un gîte de chambre d'hôtes. En 1790, la forêt devient propriété de l'État en tant que forêt domaniale. Depuis, sa lisière n'a que peu évolué.       
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_de_Boulogne_(Loir-et-Cher)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La forêt est aujourd’hui presque séparée en deux, et est aménagée en allées :
 d'abord dans sa partie ouest :
